--- a/Excel文件/xiakeqian/关卡.xlsx
+++ b/Excel文件/xiakeqian/关卡.xlsx
@@ -1,27 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377C304B-E501-4CA1-83C9-D1C8182115D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DLC_MissionLevel" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1009,8 +999,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,12 +1049,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1083,9 +1072,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1123,7 +1112,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1157,6 +1146,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1191,9 +1181,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1366,14 +1357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="9" style="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
@@ -1390,14 +1381,14 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1449,14 +1440,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1508,7 +1499,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>100001</v>
       </c>
@@ -1567,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100002</v>
       </c>
@@ -1626,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>100003</v>
       </c>
@@ -1685,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>100004</v>
       </c>
@@ -1744,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>100005</v>
       </c>
@@ -1803,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>100006</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>100007</v>
       </c>
@@ -1921,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>100008</v>
       </c>
@@ -1980,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>100009</v>
       </c>
@@ -2039,7 +2030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>100010</v>
       </c>
@@ -2098,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>100011</v>
       </c>
@@ -2158,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>100012</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>100013</v>
       </c>
@@ -2278,7 +2269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>100014</v>
       </c>
@@ -2338,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>100015</v>
       </c>
@@ -2398,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>100016</v>
       </c>
@@ -2458,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>100017</v>
       </c>
@@ -2518,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>100018</v>
       </c>
@@ -2578,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>100019</v>
       </c>
@@ -2638,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>100020</v>
       </c>
@@ -2698,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>100021</v>
       </c>
@@ -2758,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>100022</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>100023</v>
       </c>
@@ -2878,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>100024</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>100025</v>
       </c>
@@ -2998,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>100026</v>
       </c>
@@ -3058,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>100027</v>
       </c>
@@ -3118,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>100028</v>
       </c>
@@ -3178,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>100029</v>
       </c>
@@ -3238,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>100030</v>
       </c>
@@ -3298,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>400001</v>
       </c>
@@ -3358,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>400002</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>400003</v>
       </c>
@@ -3478,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>400004</v>
       </c>
@@ -3538,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>400005</v>
       </c>
@@ -3598,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>400006</v>
       </c>
@@ -3658,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>400007</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>400008</v>
       </c>
@@ -3778,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>400009</v>
       </c>
@@ -3838,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>400010</v>
       </c>
@@ -3898,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>400011</v>
       </c>
@@ -3958,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>400012</v>
       </c>
@@ -4018,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>400013</v>
       </c>
@@ -4078,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>400014</v>
       </c>
@@ -4138,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>400015</v>
       </c>
@@ -4198,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>400016</v>
       </c>
@@ -4258,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>400017</v>
       </c>
@@ -4318,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>400018</v>
       </c>
@@ -4378,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>400019</v>
       </c>
@@ -4438,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>400020</v>
       </c>
@@ -4498,7 +4489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>400021</v>
       </c>
@@ -4558,7 +4549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>400022</v>
       </c>
@@ -4618,7 +4609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>400023</v>
       </c>
@@ -4678,7 +4669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>400024</v>
       </c>
@@ -4738,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>400025</v>
       </c>
@@ -4798,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>400026</v>
       </c>
@@ -4858,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>400027</v>
       </c>
@@ -4918,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>400028</v>
       </c>
@@ -4978,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>400029</v>
       </c>
@@ -5038,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>400030</v>
       </c>
@@ -5098,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>400031</v>
       </c>
@@ -5158,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>400032</v>
       </c>
@@ -5218,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>400033</v>
       </c>
@@ -5278,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>400034</v>
       </c>
@@ -5338,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>400035</v>
       </c>
@@ -5398,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>400036</v>
       </c>
@@ -5458,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>400037</v>
       </c>
@@ -5518,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>400038</v>
       </c>
@@ -5578,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>400039</v>
       </c>
@@ -5638,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>400040</v>
       </c>
@@ -5698,7 +5689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>400041</v>
       </c>
@@ -5758,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>400042</v>
       </c>
@@ -5818,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>400043</v>
       </c>
@@ -5878,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>400044</v>
       </c>
@@ -5938,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>400045</v>
       </c>
@@ -5998,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>400046</v>
       </c>
@@ -6058,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>400047</v>
       </c>
@@ -6118,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>400048</v>
       </c>
@@ -6178,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>400049</v>
       </c>
@@ -6238,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>400050</v>
       </c>
@@ -6298,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>400051</v>
       </c>
@@ -6358,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>400052</v>
       </c>
@@ -6418,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>500001</v>
       </c>
@@ -6478,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>500002</v>
       </c>
@@ -6538,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>500003</v>
       </c>
@@ -6598,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>500004</v>
       </c>
@@ -6658,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>500005</v>
       </c>
@@ -6718,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>500006</v>
       </c>
@@ -6778,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>500007</v>
       </c>
@@ -6838,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>500008</v>
       </c>
@@ -6898,7 +6889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>500009</v>
       </c>
@@ -6958,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>500010</v>
       </c>
@@ -7018,7 +7009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>500011</v>
       </c>
@@ -7078,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>500012</v>
       </c>
@@ -7138,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>500013</v>
       </c>
@@ -7198,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>500014</v>
       </c>
@@ -7258,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>500015</v>
       </c>
@@ -7318,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>500016</v>
       </c>
@@ -7378,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>500017</v>
       </c>
@@ -7438,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>500018</v>
       </c>
@@ -7498,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>500019</v>
       </c>
@@ -7558,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>500020</v>
       </c>
@@ -7618,7 +7609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>500021</v>
       </c>
@@ -7678,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>500022</v>
       </c>
@@ -7738,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>500023</v>
       </c>
@@ -7798,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>500024</v>
       </c>
@@ -7858,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>500025</v>
       </c>
@@ -7918,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>500026</v>
       </c>
@@ -7978,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>500027</v>
       </c>
@@ -8038,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>500028</v>
       </c>
@@ -8098,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>500029</v>
       </c>
@@ -8158,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>500030</v>
       </c>
@@ -8218,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>500031</v>
       </c>
@@ -8278,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>500032</v>
       </c>
@@ -8338,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>500033</v>
       </c>
@@ -8398,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>500034</v>
       </c>
@@ -8458,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>500035</v>
       </c>
@@ -8518,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>500036</v>
       </c>
@@ -8578,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>500037</v>
       </c>
@@ -8638,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>500038</v>
       </c>
@@ -8698,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>500039</v>
       </c>
@@ -8758,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>500040</v>
       </c>
@@ -8826,12 +8817,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel文件/xiakeqian/关卡.xlsx
+++ b/Excel文件/xiakeqian/关卡.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\XiakePreMod\Excel文件\xiakeqian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4F8317-3A5E-4FE8-8606-DF741357E9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10693D0E-7082-4BA2-8E6F-7A5F4BEE5234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="298">
   <si>
     <t>#Number</t>
   </si>
@@ -872,22 +872,6 @@
   </si>
   <si>
     <t>(25,500039,0,0)</t>
-  </si>
-  <si>
-    <t>140001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140002</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140003</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140014</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>140213,140214</t>
@@ -973,6 +957,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1022,13 +1007,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1313,13 +1297,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="V109" sqref="V109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="20" width="9" style="1" customWidth="1"/>
+    <col min="1" max="17" width="9" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1490,8 +1476,8 @@
       <c r="Q3" s="1">
         <v>350</v>
       </c>
-      <c r="R3" s="4" t="s">
-        <v>281</v>
+      <c r="R3">
+        <v>140003</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -1546,8 +1532,8 @@
       <c r="Q4" s="1">
         <v>350</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>281</v>
+      <c r="R4">
+        <v>140003</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -1602,8 +1588,8 @@
       <c r="Q5" s="1">
         <v>350</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>282</v>
+      <c r="R5">
+        <v>140003</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1658,8 +1644,8 @@
       <c r="Q6" s="1">
         <v>350</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>282</v>
+      <c r="R6">
+        <v>140003</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -1714,8 +1700,8 @@
       <c r="Q7" s="1">
         <v>350</v>
       </c>
-      <c r="R7" s="4" t="s">
-        <v>283</v>
+      <c r="R7">
+        <v>140003</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -1770,8 +1756,8 @@
       <c r="Q8" s="1">
         <v>350</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>283</v>
+      <c r="R8">
+        <v>140003</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -1826,8 +1812,8 @@
       <c r="Q9" s="1">
         <v>350</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>284</v>
+      <c r="R9">
+        <v>140003</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -1882,8 +1868,8 @@
       <c r="Q10" s="1">
         <v>350</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>284</v>
+      <c r="R10">
+        <v>140003</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -1938,8 +1924,8 @@
       <c r="Q11" s="1">
         <v>350</v>
       </c>
-      <c r="R11" s="5">
-        <v>140100</v>
+      <c r="R11">
+        <v>140003</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -1994,8 +1980,8 @@
       <c r="Q12" s="1">
         <v>350</v>
       </c>
-      <c r="R12" s="5">
-        <v>140100</v>
+      <c r="R12">
+        <v>140003</v>
       </c>
       <c r="S12" s="1">
         <v>0</v>
@@ -2051,8 +2037,8 @@
         <f t="shared" ref="Q13:Q44" si="0">Q3+50</f>
         <v>400</v>
       </c>
-      <c r="R13" s="5">
-        <v>140101</v>
+      <c r="R13">
+        <v>140003</v>
       </c>
       <c r="S13" s="1">
         <v>0</v>
@@ -2108,7 +2094,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="1">
         <v>140101</v>
       </c>
       <c r="S14" s="1">
@@ -2165,7 +2151,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R15" s="5">
+      <c r="R15" s="1">
         <v>140102</v>
       </c>
       <c r="S15" s="1">
@@ -2222,7 +2208,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R16" s="5">
+      <c r="R16" s="1">
         <v>140102</v>
       </c>
       <c r="S16" s="1">
@@ -2279,7 +2265,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="1">
         <v>140103</v>
       </c>
       <c r="S17" s="1">
@@ -2336,7 +2322,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="1">
         <v>140103</v>
       </c>
       <c r="S18" s="1">
@@ -2393,7 +2379,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="1">
         <v>140104</v>
       </c>
       <c r="S19" s="1">
@@ -2450,7 +2436,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R20" s="5">
+      <c r="R20" s="1">
         <v>140104</v>
       </c>
       <c r="S20" s="1">
@@ -2507,7 +2493,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="1">
         <v>140200</v>
       </c>
       <c r="S21" s="1">
@@ -2564,7 +2550,7 @@
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="1">
         <v>140200</v>
       </c>
       <c r="S22" s="1">
@@ -2621,7 +2607,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R23" s="5">
+      <c r="R23" s="1">
         <v>140202</v>
       </c>
       <c r="S23" s="1">
@@ -2678,7 +2664,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="1">
         <v>140202</v>
       </c>
       <c r="S24" s="1">
@@ -2735,7 +2721,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="1">
         <v>140203</v>
       </c>
       <c r="S25" s="1">
@@ -2792,7 +2778,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R26" s="5">
+      <c r="R26" s="1">
         <v>140203</v>
       </c>
       <c r="S26" s="1">
@@ -2849,7 +2835,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="1">
         <v>140206</v>
       </c>
       <c r="S27" s="1">
@@ -2906,7 +2892,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R28" s="5">
+      <c r="R28" s="1">
         <v>140206</v>
       </c>
       <c r="S28" s="1">
@@ -2963,7 +2949,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R29" s="5">
+      <c r="R29" s="1">
         <v>140207</v>
       </c>
       <c r="S29" s="1">
@@ -3020,7 +3006,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="R30" s="5">
+      <c r="R30" s="1">
         <v>140207</v>
       </c>
       <c r="S30" s="1">
@@ -3078,7 +3064,7 @@
         <v>450</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S31" s="1">
         <v>0</v>
@@ -3135,7 +3121,7 @@
         <v>450</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="S32" s="1">
         <v>0</v>
@@ -3192,7 +3178,7 @@
         <v>500</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S33" s="1">
         <v>0</v>
@@ -3249,7 +3235,7 @@
         <v>500</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
@@ -3306,7 +3292,7 @@
         <v>500</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S35" s="1">
         <v>0</v>
@@ -3363,7 +3349,7 @@
         <v>500</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S36" s="1">
         <v>0</v>
@@ -3420,7 +3406,7 @@
         <v>500</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S37" s="1">
         <v>0</v>
@@ -3477,7 +3463,7 @@
         <v>500</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S38" s="1">
         <v>0</v>
@@ -3534,7 +3520,7 @@
         <v>500</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S39" s="1">
         <v>0</v>
@@ -3591,7 +3577,7 @@
         <v>500</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S40" s="1">
         <v>0</v>
@@ -3648,7 +3634,7 @@
         <v>500</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S41" s="1">
         <v>0</v>
@@ -3705,7 +3691,7 @@
         <v>500</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S42" s="1">
         <v>0</v>
@@ -3762,7 +3748,7 @@
         <v>550</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S43" s="1">
         <v>0</v>
@@ -3819,7 +3805,7 @@
         <v>550</v>
       </c>
       <c r="R44" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S44" s="1">
         <v>0</v>
@@ -3876,7 +3862,7 @@
         <v>550</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S45" s="1">
         <v>0</v>
@@ -3933,7 +3919,7 @@
         <v>550</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S46" s="1">
         <v>0</v>
@@ -3990,7 +3976,7 @@
         <v>550</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S47" s="1">
         <v>0</v>
@@ -4047,7 +4033,7 @@
         <v>550</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S48" s="1">
         <v>0</v>
@@ -4104,7 +4090,7 @@
         <v>550</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S49" s="1">
         <v>0</v>
@@ -4161,7 +4147,7 @@
         <v>550</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S50" s="1">
         <v>0</v>
@@ -4218,7 +4204,7 @@
         <v>550</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S51" s="1">
         <v>0</v>
@@ -4275,7 +4261,7 @@
         <v>550</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S52" s="1">
         <v>0</v>
@@ -4332,7 +4318,7 @@
         <v>600</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S53" s="1">
         <v>0</v>
@@ -4389,7 +4375,7 @@
         <v>600</v>
       </c>
       <c r="R54" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S54" s="1">
         <v>0</v>
@@ -4446,7 +4432,7 @@
         <v>600</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S55" s="1">
         <v>0</v>
@@ -4503,7 +4489,7 @@
         <v>600</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S56" s="1">
         <v>0</v>
@@ -4560,7 +4546,7 @@
         <v>600</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S57" s="1">
         <v>0</v>
@@ -4617,7 +4603,7 @@
         <v>600</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S58" s="1">
         <v>0</v>
@@ -4674,7 +4660,7 @@
         <v>600</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S59" s="1">
         <v>0</v>
@@ -4731,7 +4717,7 @@
         <v>600</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S60" s="1">
         <v>0</v>
@@ -4788,7 +4774,7 @@
         <v>600</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S61" s="1">
         <v>0</v>
@@ -4845,7 +4831,7 @@
         <v>600</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S62" s="1">
         <v>0</v>
@@ -4902,7 +4888,7 @@
         <v>650</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S63" s="1">
         <v>0</v>
@@ -4959,7 +4945,7 @@
         <v>650</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S64" s="1">
         <v>0</v>
@@ -5016,7 +5002,7 @@
         <v>650</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S65" s="1">
         <v>0</v>
@@ -5073,7 +5059,7 @@
         <v>650</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S66" s="1">
         <v>0</v>
@@ -5130,7 +5116,7 @@
         <v>650</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S67" s="1">
         <v>0</v>
@@ -5187,7 +5173,7 @@
         <v>650</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S68" s="1">
         <v>0</v>
@@ -5244,7 +5230,7 @@
         <v>650</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S69" s="1">
         <v>0</v>
@@ -5301,7 +5287,7 @@
         <v>650</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S70" s="1">
         <v>0</v>
@@ -5358,7 +5344,7 @@
         <v>650</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S71" s="1">
         <v>0</v>
@@ -5415,7 +5401,7 @@
         <v>650</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S72" s="1">
         <v>0</v>
@@ -5472,7 +5458,7 @@
         <v>700</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S73" s="1">
         <v>0</v>
@@ -5529,7 +5515,7 @@
         <v>700</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S74" s="1">
         <v>0</v>
@@ -5586,7 +5572,7 @@
         <v>700</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S75" s="1">
         <v>0</v>
@@ -5643,7 +5629,7 @@
         <v>700</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S76" s="1">
         <v>0</v>
@@ -5700,7 +5686,7 @@
         <v>700</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S77" s="1">
         <v>0</v>
@@ -5757,7 +5743,7 @@
         <v>700</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S78" s="1">
         <v>0</v>
@@ -5814,7 +5800,7 @@
         <v>700</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S79" s="1">
         <v>0</v>
@@ -5871,7 +5857,7 @@
         <v>700</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S80" s="1">
         <v>0</v>
@@ -5928,7 +5914,7 @@
         <v>700</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S81" s="1">
         <v>0</v>
@@ -5985,7 +5971,7 @@
         <v>700</v>
       </c>
       <c r="R82" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S82" s="1">
         <v>0</v>
@@ -6042,7 +6028,7 @@
         <v>750</v>
       </c>
       <c r="R83" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S83" s="1">
         <v>0</v>
@@ -6099,7 +6085,7 @@
         <v>750</v>
       </c>
       <c r="R84" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S84" s="1">
         <v>0</v>
@@ -6156,7 +6142,7 @@
         <v>750</v>
       </c>
       <c r="R85" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S85" s="1">
         <v>0</v>
@@ -6213,7 +6199,7 @@
         <v>750</v>
       </c>
       <c r="R86" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S86" s="1">
         <v>0</v>
@@ -6270,7 +6256,7 @@
         <v>750</v>
       </c>
       <c r="R87" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S87" s="1">
         <v>0</v>
@@ -6327,7 +6313,7 @@
         <v>750</v>
       </c>
       <c r="R88" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S88" s="1">
         <v>0</v>
@@ -6384,7 +6370,7 @@
         <v>750</v>
       </c>
       <c r="R89" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S89" s="1">
         <v>0</v>
@@ -6441,7 +6427,7 @@
         <v>750</v>
       </c>
       <c r="R90" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S90" s="1">
         <v>0</v>
@@ -6498,7 +6484,7 @@
         <v>750</v>
       </c>
       <c r="R91" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S91" s="1">
         <v>0</v>
@@ -6555,7 +6541,7 @@
         <v>750</v>
       </c>
       <c r="R92" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S92" s="1">
         <v>0</v>
@@ -6612,7 +6598,7 @@
         <v>800</v>
       </c>
       <c r="R93" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S93" s="1">
         <v>0</v>
@@ -6669,7 +6655,7 @@
         <v>800</v>
       </c>
       <c r="R94" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S94" s="1">
         <v>0</v>
@@ -6726,7 +6712,7 @@
         <v>800</v>
       </c>
       <c r="R95" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S95" s="1">
         <v>0</v>
@@ -6783,7 +6769,7 @@
         <v>800</v>
       </c>
       <c r="R96" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="S96" s="1">
         <v>0</v>
@@ -6840,7 +6826,7 @@
         <v>800</v>
       </c>
       <c r="R97" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S97" s="1">
         <v>0</v>
@@ -6897,7 +6883,7 @@
         <v>800</v>
       </c>
       <c r="R98" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="S98" s="1">
         <v>0</v>
@@ -6954,7 +6940,7 @@
         <v>800</v>
       </c>
       <c r="R99" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S99" s="1">
         <v>0</v>
@@ -7011,7 +6997,7 @@
         <v>800</v>
       </c>
       <c r="R100" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="S100" s="1">
         <v>0</v>
@@ -7068,7 +7054,7 @@
         <v>800</v>
       </c>
       <c r="R101" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S101" s="1">
         <v>0</v>
@@ -7125,7 +7111,7 @@
         <v>800</v>
       </c>
       <c r="R102" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="S102" s="1">
         <v>0</v>
@@ -7182,7 +7168,7 @@
         <v>850</v>
       </c>
       <c r="R103" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S103" s="1">
         <v>0</v>
@@ -7239,7 +7225,7 @@
         <v>850</v>
       </c>
       <c r="R104" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S104" s="1">
         <v>0</v>
@@ -7296,7 +7282,7 @@
         <v>850</v>
       </c>
       <c r="R105" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S105" s="1">
         <v>0</v>
@@ -7353,7 +7339,7 @@
         <v>850</v>
       </c>
       <c r="R106" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="S106" s="1">
         <v>0</v>
@@ -7410,7 +7396,7 @@
         <v>850</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S107" s="1">
         <v>0</v>
@@ -7467,7 +7453,7 @@
         <v>850</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="S108" s="1">
         <v>0</v>
@@ -7520,11 +7506,11 @@
         <v>1</v>
       </c>
       <c r="Q109" s="1">
-        <f t="shared" ref="Q109:Q140" si="3">Q99+50</f>
+        <f t="shared" ref="Q109:Q124" si="3">Q99+50</f>
         <v>850</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S109" s="1">
         <v>0</v>
@@ -7581,7 +7567,7 @@
         <v>850</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="S110" s="1">
         <v>0</v>
@@ -7638,7 +7624,7 @@
         <v>850</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S111" s="1">
         <v>0</v>
@@ -7695,7 +7681,7 @@
         <v>850</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="S112" s="1">
         <v>0</v>
@@ -7752,7 +7738,7 @@
         <v>900</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S113" s="1">
         <v>0</v>
@@ -7809,7 +7795,7 @@
         <v>900</v>
       </c>
       <c r="R114" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="S114" s="1">
         <v>0</v>
@@ -7866,7 +7852,7 @@
         <v>900</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S115" s="1">
         <v>0</v>
@@ -7923,7 +7909,7 @@
         <v>900</v>
       </c>
       <c r="R116" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="S116" s="1">
         <v>0</v>
@@ -7980,7 +7966,7 @@
         <v>900</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S117" s="1">
         <v>0</v>
@@ -8037,7 +8023,7 @@
         <v>900</v>
       </c>
       <c r="R118" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="S118" s="1">
         <v>0</v>
@@ -8094,7 +8080,7 @@
         <v>900</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S119" s="1">
         <v>0</v>
@@ -8151,7 +8137,7 @@
         <v>900</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="S120" s="1">
         <v>0</v>
@@ -8208,7 +8194,7 @@
         <v>900</v>
       </c>
       <c r="R121" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S121" s="1">
         <v>0</v>
@@ -8265,7 +8251,7 @@
         <v>900</v>
       </c>
       <c r="R122" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="S122" s="1">
         <v>0</v>
@@ -8322,7 +8308,7 @@
         <v>950</v>
       </c>
       <c r="R123" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S123" s="1">
         <v>0</v>
@@ -8379,7 +8365,7 @@
         <v>950</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S124" s="1">
         <v>0</v>
